--- a/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t>name</t>
   </si>
@@ -398,19 +398,13 @@
     <t>Reguła 4</t>
   </si>
   <si>
-    <t>Reguła 5</t>
-  </si>
-  <si>
     <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a3', 'a7']</t>
-  </si>
-  <si>
-    <t>(sperm &lt;=  1.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
@@ -1651,7 +1645,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1">
         <v>0.8</v>
@@ -1659,7 +1653,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2">
         <v>0.1894736842105263</v>
@@ -1667,7 +1661,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3">
         <v>0.6</v>
@@ -1675,7 +1669,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4">
         <v>0.12</v>
@@ -1696,18 +1690,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2651,7 +2645,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2670,7 +2664,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2678,7 +2672,7 @@
         <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2686,7 +2680,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2694,15 +2688,7 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2698,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2720,13 +2706,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2770,17 +2756,6 @@
         <v>0.08</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>0.08</v>
-      </c>
-      <c r="C6">
         <v>0.3333333333333333</v>
       </c>
     </row>

--- a/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
@@ -398,13 +398,13 @@
     <t>Reguła 4</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a3', 'a1']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
@@ -425,10 +425,10 @@
     <t>f1_score</t>
   </si>
   <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>correct</t>
-  </si>
-  <si>
-    <t>accuracy</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1664,7 +1664,7 @@
         <v>133</v>
       </c>
       <c r="B3">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1672,7 +1672,7 @@
         <v>134</v>
       </c>
       <c r="B4">
-        <v>0.12</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
+++ b/results/DRSA/FileDRSA_DOMApriori_NEW0.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="169">
   <si>
     <t>name</t>
   </si>
@@ -398,18 +398,108 @@
     <t>Reguła 4</t>
   </si>
   <si>
-    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a3', 'a14']</t>
+    <t>Reguła 5</t>
+  </si>
+  <si>
+    <t>Reguła 6</t>
+  </si>
+  <si>
+    <t>Reguła 7</t>
+  </si>
+  <si>
+    <t>Reguła 8</t>
+  </si>
+  <si>
+    <t>Reguła 9</t>
+  </si>
+  <si>
+    <t>Reguła 10</t>
+  </si>
+  <si>
+    <t>Reguła 11</t>
+  </si>
+  <si>
+    <t>Reguła 12</t>
+  </si>
+  <si>
+    <t>Reguła 13</t>
+  </si>
+  <si>
+    <t>Reguła 14</t>
+  </si>
+  <si>
+    <t>Reguła 15</t>
+  </si>
+  <si>
+    <t>Reguła 16</t>
+  </si>
+  <si>
+    <t>Reguła 17</t>
+  </si>
+  <si>
+    <t>Reguła 18</t>
+  </si>
+  <si>
+    <t>Reguła 19</t>
+  </si>
+  <si>
+    <t>(age &gt;=  42.0) =&gt; (class &lt;= 1) ['a14', 'a3']</t>
   </si>
   <si>
     <t>(sperm &gt;=  3.0) =&gt; (class &lt;= 1) ['a22', 'a25']</t>
   </si>
   <si>
-    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a1', 'a7', 'a3']</t>
+    <t>(pregnancy &lt;=  0.0) &amp; (attempts &gt;=  3.0) =&gt; (class &lt;= 1) ['a7', 'a1', 'a3']</t>
+  </si>
+  <si>
+    <t>(pregnancy &lt;=  0.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(attempts &gt;=  3.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a13']</t>
+  </si>
+  <si>
+    <t>(endometrium &gt;=  2.0) &amp; (sperm &gt;=  2.0) =&gt; (class &lt;= 1) ['a25']</t>
+  </si>
+  <si>
+    <t>(sperm &gt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (pregnancy &lt;=  0.0) =&gt; (class &lt;= 1) ['a15', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  40.0) &amp; (frozen_embryos &lt;=  2.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  23.0) &amp; (frozen_embryos &lt;=  2.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a3']</t>
+  </si>
+  <si>
+    <t>(age &gt;=  33.0) &amp; (pregnancy &lt;=  0.0) &amp; (cleavage_stage &gt;=  8.0) =&gt; (class &lt;= 1) ['a22', 'a3']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  22.0) =&gt; (class &gt;= 2) ['a11']</t>
   </si>
   <si>
     <t>(sperm &lt;=  2.0) &amp; (frozen_embryos &gt;=  8.0) =&gt; (class &gt;= 2) ['a16', 'a6']</t>
   </si>
   <si>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (pregnancy &gt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a16', 'a12']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  32.0) &amp; (sperm &lt;=  2.0) &amp; (cleavage_stage &lt;=  2.0) =&gt; (class &gt;= 2) ['a16']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (endometrium &lt;=  1.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
+  </si>
+  <si>
+    <t>(age &lt;=  31.0) &amp; (attempts &lt;=  1.0) &amp; (sperm &lt;=  2.0) =&gt; (class &gt;= 2) ['a11', 'a24', 'a12', 'a9']</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
@@ -419,16 +509,16 @@
     <t>coverage</t>
   </si>
   <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
     <t>not_classified</t>
   </si>
   <si>
     <t>f1_score</t>
-  </si>
-  <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>Obiekt</t>
@@ -1645,34 +1735,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="B1">
-        <v>0.8</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="B2">
-        <v>0.1894736842105263</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="B3">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.4581818181818182</v>
       </c>
     </row>
   </sheetData>
@@ -1690,21 +1780,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1714,6 +1804,9 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
         <v>2</v>
       </c>
@@ -1733,6 +1826,9 @@
       <c r="A5" t="s">
         <v>14</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>2</v>
       </c>
@@ -1749,6 +1845,9 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
       <c r="C7">
         <v>2</v>
       </c>
@@ -1768,6 +1867,9 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -1776,6 +1878,9 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
       <c r="C10">
         <v>2</v>
       </c>
@@ -1792,6 +1897,9 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
       <c r="C12">
         <v>2</v>
       </c>
@@ -1800,6 +1908,9 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
       <c r="C13">
         <v>2</v>
       </c>
@@ -1816,6 +1927,9 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -1832,6 +1946,9 @@
       <c r="A17" t="s">
         <v>26</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
       <c r="C17">
         <v>2</v>
       </c>
@@ -1872,6 +1989,9 @@
       <c r="A22" t="s">
         <v>31</v>
       </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
       <c r="C22">
         <v>1</v>
       </c>
@@ -1880,6 +2000,9 @@
       <c r="A23" t="s">
         <v>32</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
@@ -1898,6 +2021,9 @@
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>34</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2645,7 +2771,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2664,7 +2790,7 @@
         <v>120</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2672,7 +2798,7 @@
         <v>121</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2680,7 +2806,7 @@
         <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2688,7 +2814,127 @@
         <v>123</v>
       </c>
       <c r="B5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2944,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,13 +2952,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2750,13 +2996,178 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.04</v>
+      </c>
+      <c r="C6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>0.04</v>
+      </c>
+      <c r="C7">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0.04</v>
+      </c>
+      <c r="C8">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>0.04</v>
+      </c>
+      <c r="C9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>0.08</v>
       </c>
-      <c r="C5">
+      <c r="C10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0.04</v>
+      </c>
+      <c r="C11">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.04</v>
+      </c>
+      <c r="C12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.08</v>
+      </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.04</v>
+      </c>
+      <c r="C14">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.08</v>
+      </c>
+      <c r="C15">
         <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.04</v>
+      </c>
+      <c r="C16">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.08</v>
+      </c>
+      <c r="C17">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.04</v>
+      </c>
+      <c r="C18">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.16</v>
+      </c>
+      <c r="C19">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>0.16</v>
+      </c>
+      <c r="C20">
+        <v>0.6666666666666666</v>
       </c>
     </row>
   </sheetData>
